--- a/data_research/systematic_review_files_csv_xls/List of String Search.xlsx
+++ b/data_research/systematic_review_files_csv_xls/List of String Search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Santos\Desktop\Revisão Sistemática\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\ml-phd-research\data_research\systematic_review_files_csv_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,397 +30,397 @@
     <t>StringName</t>
   </si>
   <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “non-stationary environments”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “online learning”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “change of concept”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “ensemble”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “concept drift”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “data stream”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “classification”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “ensemble classifier” AND “data mining”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “non-stationary environments” AND “online learning”</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “non-stationary environments” AND "change of concept"</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “non-stationary environments” AND "ensemble"</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “non-stationary environments” AND "concept drift"</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “non-stationary environments” AND "data stream"</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “non-stationary environments” AND "classification"</t>
-  </si>
-  <si>
-    <t>“random forests” AND “data stream mining” AND “non-stationary environments” AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "online learning" AND "change of concept"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "online learning" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "online learning" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "online learning" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "online learning" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "online learning" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "change of concept" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "change of concept" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "change of concept" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "change of concept" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "change of concept" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "ensemble" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "ensemble" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining” AND "ensemble" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining" AND "ensemble" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining" AND "concept drift" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining" AND "concept drift" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining" AND "concept drift" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining" AND "data stream" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining" AND "data stream" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream mining" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "non-stationary environments" AND "online learning"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "non-stationary environments" AND "change of concept"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "non-stationary environments" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "non-stationary environments" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "non-stationary environments" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "non-stationary environments" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "non-stationary environments" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "online learning" AND "change of concept"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "online learning" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "online learning" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "online learning" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "online learning" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "online learning" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "change of concept" AND "online learning"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "change of concept" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "change of concept" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "change of concept" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "change of concept" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "change of concept" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "ensemble" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "ensemble" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "ensemble" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "ensemble" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "concept drift" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "concept drift" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "concept drift" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "data stream" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "data stream" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble classifier" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "online learning"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "change of concept"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream mining" AND "data stream mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "online learning" AND "change of concept"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "online learning" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "online learning" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "online learning" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "online learning" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "online learning" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "change of concept" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "change of concept" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "change of concept" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "change of concept" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "change of concept" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "ensemble" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "ensemble" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "ensemble" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "ensemble" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "concept drift" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "concept drift" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "concept drift" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "data stream" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "non-stationary environments" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "change of concept" AND "ensemble"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "change of concept" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "change of concept" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "change of concept" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "change of concept" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "ensemble" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "ensemble" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "ensemble" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "ensemble" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "concept drift" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "concept drift" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "concept drift" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "data stream" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "data stream" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "online learning" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "ensemble" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "ensemble" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "ensemble" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "ensemble" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "concept drift" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "concept drift" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "concept drift" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "data stream" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "data stream" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "change of concept" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble" AND "concept drift" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble" AND "concept drift" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble" AND "data stream" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble" AND "data stream" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble" AND "data mining" AND "concept drift"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "concept drift" AND "data stream" AND "classification"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "concept drift" AND "data stream" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "concept drift" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "data stream" AND "classification" AND "data mining"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "classification" AND "data mining" AND "data stream"</t>
-  </si>
-  <si>
-    <t>"random forests” AND "ensemble" AND "concept drift" AND "data mining"</t>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “non-stationary environments”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “online learning”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “change of concept”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “ensemble”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “concept drift”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “data stream”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “classification”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “ensemble classifier” AND “data mining”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “non-stationary environments” AND “online learning”</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “non-stationary environments” AND "change of concept"</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “non-stationary environments” AND "ensemble"</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “non-stationary environments” AND "concept drift"</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “non-stationary environments” AND "data stream"</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “non-stationary environments” AND "classification"</t>
+  </si>
+  <si>
+    <t>“random forest” AND “data stream mining” AND “non-stationary environments” AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "online learning" AND "change of concept"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "online learning" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "online learning" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "online learning" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "online learning" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "online learning" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "change of concept" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "change of concept" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "change of concept" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "change of concept" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "change of concept" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "ensemble" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "ensemble" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining” AND "ensemble" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining" AND "ensemble" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining" AND "concept drift" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining" AND "concept drift" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining" AND "concept drift" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining" AND "data stream" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining" AND "data stream" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream mining" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "non-stationary environments" AND "online learning"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "non-stationary environments" AND "change of concept"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "non-stationary environments" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "non-stationary environments" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "non-stationary environments" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "non-stationary environments" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "non-stationary environments" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "online learning" AND "change of concept"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "online learning" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "online learning" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "online learning" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "online learning" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "online learning" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "change of concept" AND "online learning"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "change of concept" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "change of concept" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "change of concept" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "change of concept" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "change of concept" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "ensemble" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "ensemble" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "ensemble" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "ensemble" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "concept drift" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "concept drift" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "concept drift" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "data stream" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "data stream" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble classifier" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "online learning"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "change of concept"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream mining" AND "data stream mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "online learning" AND "change of concept"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "online learning" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "online learning" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "online learning" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "online learning" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "online learning" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "change of concept" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "change of concept" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "change of concept" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "change of concept" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "change of concept" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "ensemble" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "ensemble" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "ensemble" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "ensemble" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "concept drift" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "concept drift" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "concept drift" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "data stream" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "non-stationary environments" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "change of concept" AND "ensemble"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "change of concept" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "change of concept" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "change of concept" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "change of concept" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "ensemble" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "ensemble" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "ensemble" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "ensemble" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "concept drift" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "concept drift" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "concept drift" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "data stream" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "data stream" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "online learning" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "ensemble" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "ensemble" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "ensemble" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "ensemble" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "concept drift" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "concept drift" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "concept drift" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "data stream" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "data stream" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "change of concept" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble" AND "concept drift" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble" AND "concept drift" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble" AND "data stream" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble" AND "data stream" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble" AND "data mining" AND "concept drift"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "concept drift" AND "data stream" AND "classification"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "concept drift" AND "data stream" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "concept drift" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "data stream" AND "classification" AND "data mining"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "classification" AND "data mining" AND "data stream"</t>
+  </si>
+  <si>
+    <t>"random forest” AND "ensemble" AND "concept drift" AND "data mining"</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" activeCellId="2" sqref="B29 B30 B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
